--- a/Reports/heart/heart_multifairgan_100_02.xlsx
+++ b/Reports/heart/heart_multifairgan_100_02.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0917</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0046</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0099</v>
+        <v>1.0379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2576</v>
+        <v>1.1333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1173</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1.1872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.1818</v>
+        <v>0.1143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1.3636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1201</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0056</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8283</v>
+        <v>0.6457000000000001</v>
       </c>
     </row>
     <row r="13">
